--- a/OverTime_Port/bin/Debug/bk/initial.xlsx
+++ b/OverTime_Port/bin/Debug/bk/initial.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CF1B6-E329-4F9B-BFBC-61B6CF225ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9B522-8C67-404C-969D-D9C5005279AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="البدلات" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A06BB5-65A6-4910-A1AB-9C84CD309B40}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
